--- a/WarehouseAPI/Supplier.xlsx
+++ b/WarehouseAPI/Supplier.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhta1\OneDrive\Máy tính\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thien\OneDrive\Documents\GitHub\warehouse_project_4\WarehouseAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68AF92BF-11FC-414F-BFFA-EA144348E98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5EEEA6-5160-470E-B36D-F518BD32577E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ORDER" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ORDER!$A$1:$I$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ORDER!$A$1:$G$27</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Doc No.</t>
   </si>
@@ -50,18 +50,12 @@
   </si>
   <si>
     <t>1 of 1</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t xml:space="preserve">2HAT Warehouses Management System
 </t>
   </si>
   <si>
-    <t>Issue Note Report</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 </t>
   </si>
@@ -81,27 +75,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>Item Name</t>
-  </si>
-  <si>
-    <t>Package</t>
-  </si>
-  <si>
-    <t>Quantity/Package</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>REF No</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
     <t>Request By</t>
   </si>
   <si>
@@ -109,21 +82,38 @@
   </si>
   <si>
     <t>Warehouse representative</t>
+  </si>
+  <si>
+    <t>Supplier List</t>
+  </si>
+  <si>
+    <t>Supplier Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Tax Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="\ "/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="\ "/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,27 +189,16 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="18"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -263,17 +242,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -294,6 +262,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -308,25 +324,25 @@
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -339,68 +355,28 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -408,10 +384,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -419,20 +391,72 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -475,15 +499,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>334907</xdr:colOff>
+      <xdr:colOff>8336</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>121784</xdr:rowOff>
+      <xdr:rowOff>45584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2039894</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>172527</xdr:rowOff>
+      <xdr:colOff>2188029</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15732</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -506,8 +530,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="334907" y="121784"/>
-          <a:ext cx="2080489" cy="933682"/>
+          <a:off x="8336" y="45584"/>
+          <a:ext cx="2549807" cy="1145805"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -843,403 +867,342 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="36.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="5.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="67" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A2" s="32"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A3" s="32"/>
+      <c r="B3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6">
+        <v>44627</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A4" s="33"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="21.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="22.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="15">
+        <v>1</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="15">
+        <v>2</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="15">
+        <v>3</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="15">
+        <v>4</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="15">
+        <v>5</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="15">
+        <v>6</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="15">
         <v>7</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="15">
+        <v>8</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="15">
+        <v>9</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="15">
+        <v>10</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="15">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="23.1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="23.1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="13">
-        <v>44627</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="23.1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="23.8" x14ac:dyDescent="0.4">
-      <c r="A5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:9" ht="23.8" x14ac:dyDescent="0.4">
-      <c r="A6" s="19" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="15">
         <v>12</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="1:9" ht="23.8" x14ac:dyDescent="0.4">
-      <c r="A7" s="21" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="15">
         <v>13</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="1:9" ht="21.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="24" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="15">
         <v>14</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="15">
         <v>15</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="15">
         <v>16</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="1:9" ht="22.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="26">
-        <v>1</v>
-      </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="26">
-        <v>2</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
-    </row>
-    <row r="11" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="26">
-        <v>3</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="26">
-        <v>4</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="17"/>
-    </row>
-    <row r="13" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="26">
-        <v>5</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="17"/>
-    </row>
-    <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="26">
-        <v>6</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="17"/>
-    </row>
-    <row r="15" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="26">
-        <v>7</v>
-      </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="17"/>
-    </row>
-    <row r="16" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="26">
-        <v>8</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="17"/>
-    </row>
-    <row r="17" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="26">
-        <v>9</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="26">
-        <v>10</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="17"/>
-    </row>
-    <row r="19" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="26">
-        <v>11</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="20" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="26">
-        <v>12</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="17"/>
-    </row>
-    <row r="21" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="26">
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="17"/>
-    </row>
-    <row r="22" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="26">
+      <c r="D27" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="26">
+      <c r="F27" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="17"/>
-    </row>
-    <row r="24" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="26">
-        <v>16</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.65" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:9" ht="14.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" ht="81.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H37" s="1">
+    </row>
+    <row r="28" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="1">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:G2"/>
-    <mergeCell ref="C3:G4"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="B3:D4"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.17" top="0.21" bottom="0.35" header="0.17" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
